--- a/natmiOut/OldD4/LR-pairs_lrc2p/Sema3g-Nrp2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Sema3g-Nrp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Nrp2</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.8461452482599</v>
+        <v>11.42569233333333</v>
       </c>
       <c r="H2">
-        <v>10.8461452482599</v>
+        <v>34.277077</v>
       </c>
       <c r="I2">
-        <v>0.9290095952402918</v>
+        <v>0.9287201125191051</v>
       </c>
       <c r="J2">
-        <v>0.9290095952402918</v>
+        <v>0.9504172085657416</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>38.5748360580934</v>
+        <v>44.13164066666667</v>
       </c>
       <c r="N2">
-        <v>38.5748360580934</v>
+        <v>132.394922</v>
       </c>
       <c r="O2">
-        <v>0.422752321903902</v>
+        <v>0.4415399811720331</v>
       </c>
       <c r="P2">
-        <v>0.422752321903902</v>
+        <v>0.4562856844211927</v>
       </c>
       <c r="Q2">
-        <v>418.3882748138944</v>
+        <v>504.2345484225549</v>
       </c>
       <c r="R2">
-        <v>418.3882748138944</v>
+        <v>4538.110935802994</v>
       </c>
       <c r="S2">
-        <v>0.3927409634588375</v>
+        <v>0.4100670609957742</v>
       </c>
       <c r="T2">
-        <v>0.3927409634588375</v>
+        <v>0.4336617664960989</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.8461452482599</v>
+        <v>11.42569233333333</v>
       </c>
       <c r="H3">
-        <v>10.8461452482599</v>
+        <v>34.277077</v>
       </c>
       <c r="I3">
-        <v>0.9290095952402918</v>
+        <v>0.9287201125191051</v>
       </c>
       <c r="J3">
-        <v>0.9290095952402918</v>
+        <v>0.9504172085657416</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.6183485788859</v>
+        <v>14.93259333333333</v>
       </c>
       <c r="N3">
-        <v>13.6183485788859</v>
+        <v>44.79778</v>
       </c>
       <c r="O3">
-        <v>0.1492472572936004</v>
+        <v>0.1494015830739255</v>
       </c>
       <c r="P3">
-        <v>0.1492472572936004</v>
+        <v>0.1543910098595022</v>
       </c>
       <c r="Q3">
-        <v>147.7065867280303</v>
+        <v>170.6152171654511</v>
       </c>
       <c r="R3">
-        <v>147.7065867280303</v>
+        <v>1535.53695448906</v>
       </c>
       <c r="S3">
-        <v>0.1386521340890514</v>
+        <v>0.1387522550429485</v>
       </c>
       <c r="T3">
-        <v>0.1386521340890514</v>
+        <v>0.1467358726183139</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.8461452482599</v>
+        <v>11.42569233333333</v>
       </c>
       <c r="H4">
-        <v>10.8461452482599</v>
+        <v>34.277077</v>
       </c>
       <c r="I4">
-        <v>0.9290095952402918</v>
+        <v>0.9287201125191051</v>
       </c>
       <c r="J4">
-        <v>0.9290095952402918</v>
+        <v>0.9504172085657416</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.7092568522669</v>
+        <v>13.61024133333333</v>
       </c>
       <c r="N4">
-        <v>12.7092568522669</v>
+        <v>40.830724</v>
       </c>
       <c r="O4">
-        <v>0.1392842690472466</v>
+        <v>0.1361713639304118</v>
       </c>
       <c r="P4">
-        <v>0.1392842690472466</v>
+        <v>0.1407189532975654</v>
       </c>
       <c r="Q4">
-        <v>137.8464458171292</v>
+        <v>155.5064300570831</v>
       </c>
       <c r="R4">
-        <v>137.8464458171292</v>
+        <v>1399.557870513748</v>
       </c>
       <c r="S4">
-        <v>0.1293964224109224</v>
+        <v>0.126465084431332</v>
       </c>
       <c r="T4">
-        <v>0.1293964224109224</v>
+        <v>0.1337417147853651</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.8461452482599</v>
+        <v>11.42569233333333</v>
       </c>
       <c r="H5">
-        <v>10.8461452482599</v>
+        <v>34.277077</v>
       </c>
       <c r="I5">
-        <v>0.9290095952402918</v>
+        <v>0.9287201125191051</v>
       </c>
       <c r="J5">
-        <v>0.9290095952402918</v>
+        <v>0.9504172085657416</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.0998443410514</v>
+        <v>17.584752</v>
       </c>
       <c r="N5">
-        <v>17.0998443410514</v>
+        <v>52.754256</v>
       </c>
       <c r="O5">
-        <v>0.1874019344758319</v>
+        <v>0.1759366057935712</v>
       </c>
       <c r="P5">
-        <v>0.1874019344758319</v>
+        <v>0.1818121982434553</v>
       </c>
       <c r="Q5">
-        <v>185.4673954456786</v>
+        <v>200.9179661099679</v>
       </c>
       <c r="R5">
-        <v>185.4673954456786</v>
+        <v>1808.261694989712</v>
       </c>
       <c r="S5">
-        <v>0.1740981952946403</v>
+        <v>0.1633958643288349</v>
       </c>
       <c r="T5">
-        <v>0.1740981952946403</v>
+        <v>0.1727974419377461</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.8461452482599</v>
+        <v>11.42569233333333</v>
       </c>
       <c r="H6">
-        <v>10.8461452482599</v>
+        <v>34.277077</v>
       </c>
       <c r="I6">
-        <v>0.9290095952402918</v>
+        <v>0.9287201125191051</v>
       </c>
       <c r="J6">
-        <v>0.9290095952402918</v>
+        <v>0.9504172085657416</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.24460758561141</v>
+        <v>9.690137500000001</v>
       </c>
       <c r="N6">
-        <v>9.24460758561141</v>
+        <v>19.380275</v>
       </c>
       <c r="O6">
-        <v>0.1013142172794192</v>
+        <v>0.09695046603005844</v>
       </c>
       <c r="P6">
-        <v>0.1013142172794192</v>
+        <v>0.06679215417828435</v>
       </c>
       <c r="Q6">
-        <v>100.2683566367066</v>
+        <v>110.7165297426958</v>
       </c>
       <c r="R6">
-        <v>100.2683566367066</v>
+        <v>664.299178456175</v>
       </c>
       <c r="S6">
-        <v>0.0941218799868402</v>
+        <v>0.09003984772021556</v>
       </c>
       <c r="T6">
-        <v>0.0941218799868402</v>
+        <v>0.06348041272821765</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -847,49 +847,49 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.828809783237384</v>
+        <v>0.034359</v>
       </c>
       <c r="H7">
-        <v>0.828809783237384</v>
+        <v>0.103077</v>
       </c>
       <c r="I7">
-        <v>0.07099040475970821</v>
+        <v>0.00279281932465046</v>
       </c>
       <c r="J7">
-        <v>0.07099040475970821</v>
+        <v>0.00285806618246156</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>38.5748360580934</v>
+        <v>44.13164066666667</v>
       </c>
       <c r="N7">
-        <v>38.5748360580934</v>
+        <v>132.394922</v>
       </c>
       <c r="O7">
-        <v>0.422752321903902</v>
+        <v>0.4415399811720331</v>
       </c>
       <c r="P7">
-        <v>0.422752321903902</v>
+        <v>0.4562856844211927</v>
       </c>
       <c r="Q7">
-        <v>31.97120151172602</v>
+        <v>1.516319041666</v>
       </c>
       <c r="R7">
-        <v>31.97120151172602</v>
+        <v>13.646871374994</v>
       </c>
       <c r="S7">
-        <v>0.03001135844506446</v>
+        <v>0.001233141392023054</v>
       </c>
       <c r="T7">
-        <v>0.03001135844506446</v>
+        <v>0.001304094684185539</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.828809783237384</v>
+        <v>0.034359</v>
       </c>
       <c r="H8">
-        <v>0.828809783237384</v>
+        <v>0.103077</v>
       </c>
       <c r="I8">
-        <v>0.07099040475970821</v>
+        <v>0.00279281932465046</v>
       </c>
       <c r="J8">
-        <v>0.07099040475970821</v>
+        <v>0.00285806618246156</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.6183485788859</v>
+        <v>14.93259333333333</v>
       </c>
       <c r="N8">
-        <v>13.6183485788859</v>
+        <v>44.79778</v>
       </c>
       <c r="O8">
-        <v>0.1492472572936004</v>
+        <v>0.1494015830739255</v>
       </c>
       <c r="P8">
-        <v>0.1492472572936004</v>
+        <v>0.1543910098595022</v>
       </c>
       <c r="Q8">
-        <v>11.28702053371756</v>
+        <v>0.5130689743400001</v>
       </c>
       <c r="R8">
-        <v>11.28702053371756</v>
+        <v>4.61762076906</v>
       </c>
       <c r="S8">
-        <v>0.010595123204549</v>
+        <v>0.0004172516283422301</v>
       </c>
       <c r="T8">
-        <v>0.010595123204549</v>
+        <v>0.0004412597241555325</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -971,49 +971,49 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.828809783237384</v>
+        <v>0.034359</v>
       </c>
       <c r="H9">
-        <v>0.828809783237384</v>
+        <v>0.103077</v>
       </c>
       <c r="I9">
-        <v>0.07099040475970821</v>
+        <v>0.00279281932465046</v>
       </c>
       <c r="J9">
-        <v>0.07099040475970821</v>
+        <v>0.00285806618246156</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.7092568522669</v>
+        <v>13.61024133333333</v>
       </c>
       <c r="N9">
-        <v>12.7092568522669</v>
+        <v>40.830724</v>
       </c>
       <c r="O9">
-        <v>0.1392842690472466</v>
+        <v>0.1361713639304118</v>
       </c>
       <c r="P9">
-        <v>0.1392842690472466</v>
+        <v>0.1407189532975654</v>
       </c>
       <c r="Q9">
-        <v>10.53355641683557</v>
+        <v>0.467634281972</v>
       </c>
       <c r="R9">
-        <v>10.53355641683557</v>
+        <v>4.208708537748</v>
       </c>
       <c r="S9">
-        <v>0.009887846636324131</v>
+        <v>0.0003803020166488646</v>
       </c>
       <c r="T9">
-        <v>0.009887846636324131</v>
+        <v>0.0004021840816511594</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -1033,49 +1033,49 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.828809783237384</v>
+        <v>0.034359</v>
       </c>
       <c r="H10">
-        <v>0.828809783237384</v>
+        <v>0.103077</v>
       </c>
       <c r="I10">
-        <v>0.07099040475970821</v>
+        <v>0.00279281932465046</v>
       </c>
       <c r="J10">
-        <v>0.07099040475970821</v>
+        <v>0.00285806618246156</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.0998443410514</v>
+        <v>17.584752</v>
       </c>
       <c r="N10">
-        <v>17.0998443410514</v>
+        <v>52.754256</v>
       </c>
       <c r="O10">
-        <v>0.1874019344758319</v>
+        <v>0.1759366057935712</v>
       </c>
       <c r="P10">
-        <v>0.1874019344758319</v>
+        <v>0.1818121982434553</v>
       </c>
       <c r="Q10">
-        <v>14.17251828169982</v>
+        <v>0.604194493968</v>
       </c>
       <c r="R10">
-        <v>14.17251828169982</v>
+        <v>5.437750445712</v>
       </c>
       <c r="S10">
-        <v>0.01330373918119162</v>
+        <v>0.0004913591525736958</v>
       </c>
       <c r="T10">
-        <v>0.01330373918119162</v>
+        <v>0.0005196312953586168</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.034359</v>
+      </c>
+      <c r="H11">
+        <v>0.103077</v>
+      </c>
+      <c r="I11">
+        <v>0.00279281932465046</v>
+      </c>
+      <c r="J11">
+        <v>0.00285806618246156</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>9.690137500000001</v>
+      </c>
+      <c r="N11">
+        <v>19.380275</v>
+      </c>
+      <c r="O11">
+        <v>0.09695046603005844</v>
+      </c>
+      <c r="P11">
+        <v>0.06679215417828435</v>
+      </c>
+      <c r="Q11">
+        <v>0.3329434343625</v>
+      </c>
+      <c r="R11">
+        <v>1.997660606175</v>
+      </c>
+      <c r="S11">
+        <v>0.0002707651350626152</v>
+      </c>
+      <c r="T11">
+        <v>0.0001908963971107131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.8425705</v>
+      </c>
+      <c r="H12">
+        <v>1.685141</v>
+      </c>
+      <c r="I12">
+        <v>0.06848706815624436</v>
+      </c>
+      <c r="J12">
+        <v>0.04672472525179678</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>44.13164066666667</v>
+      </c>
+      <c r="N12">
+        <v>132.394922</v>
+      </c>
+      <c r="O12">
+        <v>0.4415399811720331</v>
+      </c>
+      <c r="P12">
+        <v>0.4562856844211927</v>
+      </c>
+      <c r="Q12">
+        <v>37.18401854233367</v>
+      </c>
+      <c r="R12">
+        <v>223.104111254002</v>
+      </c>
+      <c r="S12">
+        <v>0.03023977878423589</v>
+      </c>
+      <c r="T12">
+        <v>0.02131982324090828</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.828809783237384</v>
-      </c>
-      <c r="H11">
-        <v>0.828809783237384</v>
-      </c>
-      <c r="I11">
-        <v>0.07099040475970821</v>
-      </c>
-      <c r="J11">
-        <v>0.07099040475970821</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>9.24460758561141</v>
-      </c>
-      <c r="N11">
-        <v>9.24460758561141</v>
-      </c>
-      <c r="O11">
-        <v>0.1013142172794192</v>
-      </c>
-      <c r="P11">
-        <v>0.1013142172794192</v>
-      </c>
-      <c r="Q11">
-        <v>7.662021209145268</v>
-      </c>
-      <c r="R11">
-        <v>7.662021209145268</v>
-      </c>
-      <c r="S11">
-        <v>0.007192337292578991</v>
-      </c>
-      <c r="T11">
-        <v>0.007192337292578991</v>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.8425705</v>
+      </c>
+      <c r="H13">
+        <v>1.685141</v>
+      </c>
+      <c r="I13">
+        <v>0.06848706815624436</v>
+      </c>
+      <c r="J13">
+        <v>0.04672472525179678</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>14.93259333333333</v>
+      </c>
+      <c r="N13">
+        <v>44.79778</v>
+      </c>
+      <c r="O13">
+        <v>0.1494015830739255</v>
+      </c>
+      <c r="P13">
+        <v>0.1543910098595022</v>
+      </c>
+      <c r="Q13">
+        <v>12.58176263116333</v>
+      </c>
+      <c r="R13">
+        <v>75.49057578698</v>
+      </c>
+      <c r="S13">
+        <v>0.01023207640263474</v>
+      </c>
+      <c r="T13">
+        <v>0.007213877517032686</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.8425705</v>
+      </c>
+      <c r="H14">
+        <v>1.685141</v>
+      </c>
+      <c r="I14">
+        <v>0.06848706815624436</v>
+      </c>
+      <c r="J14">
+        <v>0.04672472525179678</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>13.61024133333333</v>
+      </c>
+      <c r="N14">
+        <v>40.830724</v>
+      </c>
+      <c r="O14">
+        <v>0.1361713639304118</v>
+      </c>
+      <c r="P14">
+        <v>0.1407189532975654</v>
+      </c>
+      <c r="Q14">
+        <v>11.46758784534733</v>
+      </c>
+      <c r="R14">
+        <v>68.80552707208399</v>
+      </c>
+      <c r="S14">
+        <v>0.009325977482430865</v>
+      </c>
+      <c r="T14">
+        <v>0.006575054430549167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.8425705</v>
+      </c>
+      <c r="H15">
+        <v>1.685141</v>
+      </c>
+      <c r="I15">
+        <v>0.06848706815624436</v>
+      </c>
+      <c r="J15">
+        <v>0.04672472525179678</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>17.584752</v>
+      </c>
+      <c r="N15">
+        <v>52.754256</v>
+      </c>
+      <c r="O15">
+        <v>0.1759366057935712</v>
+      </c>
+      <c r="P15">
+        <v>0.1818121982434553</v>
+      </c>
+      <c r="Q15">
+        <v>14.816393285016</v>
+      </c>
+      <c r="R15">
+        <v>88.898359710096</v>
+      </c>
+      <c r="S15">
+        <v>0.01204938231216261</v>
+      </c>
+      <c r="T15">
+        <v>0.008495125010350661</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.8425705</v>
+      </c>
+      <c r="H16">
+        <v>1.685141</v>
+      </c>
+      <c r="I16">
+        <v>0.06848706815624436</v>
+      </c>
+      <c r="J16">
+        <v>0.04672472525179678</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>9.690137500000001</v>
+      </c>
+      <c r="N16">
+        <v>19.380275</v>
+      </c>
+      <c r="O16">
+        <v>0.09695046603005844</v>
+      </c>
+      <c r="P16">
+        <v>0.06679215417828435</v>
+      </c>
+      <c r="Q16">
+        <v>8.16462399844375</v>
+      </c>
+      <c r="R16">
+        <v>32.658495993775</v>
+      </c>
+      <c r="S16">
+        <v>0.006639853174780266</v>
+      </c>
+      <c r="T16">
+        <v>0.003120845052955987</v>
       </c>
     </row>
   </sheetData>
